--- a/NformTester/NformTester/Keywordscripts/600.20.30.50_ConfigureForwardtrapAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.50_ConfigureForwardtrapAction.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7882" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7894" uniqueCount="895">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4285,7 +4285,35 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4646,10 +4674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4859,7 +4887,7 @@
         <v>803</v>
       </c>
       <c r="B7" s="22">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="13">
         <v>6</v>
@@ -6523,14 +6551,12 @@
         <v>348</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>881</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
@@ -6543,13 +6569,13 @@
         <v>71</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>830</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>348</v>
+        <v>842</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>2</v>
@@ -6567,13 +6593,13 @@
         <v>72</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>830</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>878</v>
+        <v>842</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>2</v>
@@ -6591,16 +6617,20 @@
         <v>73</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>871</v>
+        <v>830</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>799</v>
-      </c>
-      <c r="F74" s="13">
-        <v>5</v>
-      </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
+        <v>348</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>881</v>
+      </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
@@ -6619,7 +6649,7 @@
         <v>348</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>2</v>
@@ -6632,16 +6662,22 @@
       <c r="M75" s="13"/>
       <c r="N75" s="19"/>
     </row>
-    <row r="76" spans="3:14" s="11" customFormat="1" ht="15">
+    <row r="76" spans="3:14" s="11" customFormat="1">
       <c r="C76" s="13">
         <v>75</v>
       </c>
-      <c r="D76" s="18" t="s">
-        <v>866</v>
-      </c>
-      <c r="E76" s="15"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
+      <c r="D76" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>878</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -6655,10 +6691,10 @@
         <v>76</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>868</v>
+        <v>799</v>
       </c>
       <c r="F77" s="13">
         <v>5</v>
@@ -6680,40 +6716,34 @@
         <v>830</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
       <c r="N78" s="19"/>
     </row>
-    <row r="79" spans="3:14" s="11" customFormat="1">
+    <row r="79" spans="3:14" s="11" customFormat="1" ht="15">
       <c r="C79" s="13">
         <v>78</v>
       </c>
-      <c r="D79" s="14" t="s">
-        <v>869</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
+      <c r="D79" s="18" t="s">
+        <v>866</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
@@ -6725,20 +6755,16 @@
         <v>79</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>870</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>857</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="F80" s="13">
+        <v>5</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
@@ -6746,24 +6772,24 @@
       <c r="M80" s="13"/>
       <c r="N80" s="19"/>
     </row>
-    <row r="81" spans="3:14" s="11" customFormat="1" ht="14.25">
+    <row r="81" spans="3:14" s="11" customFormat="1">
       <c r="C81" s="13">
         <v>80</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>869</v>
+        <v>830</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>870</v>
+        <v>19</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H81" s="21"/>
-      <c r="I81" s="13"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
@@ -6777,17 +6803,17 @@
       <c r="D82" s="14" t="s">
         <v>869</v>
       </c>
-      <c r="E82" s="13" t="s">
-        <v>628</v>
+      <c r="E82" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>2</v>
       </c>
       <c r="H82" s="15"/>
-      <c r="I82" s="13"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="13"/>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
@@ -6805,34 +6831,38 @@
         <v>870</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>100</v>
+        <v>621</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="I83" s="13"/>
       <c r="J83" s="13"/>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="19"/>
     </row>
-    <row r="84" spans="3:14" s="11" customFormat="1">
+    <row r="84" spans="3:14" s="11" customFormat="1" ht="14.25">
       <c r="C84" s="13">
         <v>83</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>868</v>
-      </c>
-      <c r="F84" s="13">
-        <v>3</v>
-      </c>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+        <v>870</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="21"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
@@ -6840,59 +6870,129 @@
       <c r="M84" s="13"/>
       <c r="N84" s="19"/>
     </row>
+    <row r="85" spans="3:14" s="11" customFormat="1">
+      <c r="C85" s="13">
+        <v>84</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="19"/>
+    </row>
+    <row r="86" spans="3:14" s="11" customFormat="1">
+      <c r="C86" s="13">
+        <v>85</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="19"/>
+    </row>
+    <row r="87" spans="3:14" s="11" customFormat="1">
+      <c r="C87" s="13">
+        <v>86</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="F87" s="13">
+        <v>3</v>
+      </c>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="19"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N84">
-    <cfRule type="cellIs" dxfId="9" priority="49" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N87">
+    <cfRule type="cellIs" dxfId="13" priority="49" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="50" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N5">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N5">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N5">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D84 D78 D61:D67 D70:D75 D7:D24 D45:D51 D38:D43 D26:D36 D53:D59 D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D87 D81 D61:D67 D3 D7:D24 D45:D51 D38:D43 D26:D36 D53:D59 D70:D78">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G81:G84 G2:G79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G84:G87 G2:G82">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:F56 F58:F84 F2:F42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:F56 F2:F42 F58:F87">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E87">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.50_ConfigureForwardtrapAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.50_ConfigureForwardtrapAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
@@ -1255,7 +1255,7 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3834,10 +3834,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4007,6 +4003,9 @@
   <si>
     <t>$Forward_trap$</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
   </si>
 </sst>
 </file>
@@ -4280,40 +4279,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -4390,7 +4361,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4676,8 +4647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E55" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4743,7 +4714,7 @@
         <v>820</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -4769,13 +4740,13 @@
         <v>822</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C3" s="13">
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>0</v>
@@ -4785,13 +4756,13 @@
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>883</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>884</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>885</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -4810,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -4835,7 +4806,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>620</v>
@@ -4845,13 +4816,13 @@
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>888</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>889</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>890</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -4863,7 +4834,7 @@
         <v>827</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C6" s="13">
         <v>5</v>
@@ -5027,7 +4998,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -5176,7 +5147,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
@@ -5244,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -5445,7 +5416,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="13"/>
@@ -5523,7 +5494,7 @@
         <v>56</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
@@ -5600,7 +5571,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>849</v>
+        <v>894</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -5622,10 +5593,10 @@
         <v>435</v>
       </c>
       <c r="G32" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>850</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>851</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -5645,13 +5616,13 @@
         <v>433</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>56</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -5737,7 +5708,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -5788,7 +5759,7 @@
         <v>27</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
@@ -5809,7 +5780,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>2</v>
@@ -5833,13 +5804,13 @@
         <v>19</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -5877,10 +5848,10 @@
         <v>42</v>
       </c>
       <c r="D43" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>858</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>859</v>
       </c>
       <c r="F43" s="13">
         <v>2</v>
@@ -5899,7 +5870,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="13"/>
@@ -5947,7 +5918,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>2</v>
@@ -5977,7 +5948,7 @@
         <v>56</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>849</v>
+        <v>894</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -6087,7 +6058,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="13"/>
@@ -6135,7 +6106,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>2</v>
@@ -6159,7 +6130,7 @@
         <v>19</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>58</v>
@@ -6205,10 +6176,10 @@
         <v>56</v>
       </c>
       <c r="D57" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="E57" s="15" t="s">
         <v>858</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>859</v>
       </c>
       <c r="F57" s="13">
         <v>2</v>
@@ -6230,16 +6201,16 @@
         <v>830</v>
       </c>
       <c r="E58" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>864</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>865</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>60</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="13"/>
@@ -6256,7 +6227,7 @@
         <v>830</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>100</v>
@@ -6277,7 +6248,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
@@ -6295,7 +6266,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>19</v>
@@ -6319,7 +6290,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>19</v>
@@ -6343,7 +6314,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>348</v>
@@ -6355,7 +6326,7 @@
         <v>56</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -6369,7 +6340,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>348</v>
@@ -6405,7 +6376,7 @@
         <v>56</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
@@ -6434,7 +6405,7 @@
         <v>839</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J66" s="13" t="b">
         <v>1</v>
@@ -6629,7 +6600,7 @@
         <v>56</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -6670,7 +6641,7 @@
         <v>830</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>244</v>
@@ -6691,7 +6662,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>799</v>
@@ -6737,7 +6708,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="13"/>
@@ -6755,10 +6726,10 @@
         <v>79</v>
       </c>
       <c r="D80" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="E80" s="15" t="s">
         <v>867</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>868</v>
       </c>
       <c r="F80" s="13">
         <v>5</v>
@@ -6801,7 +6772,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>19</v>
@@ -6825,10 +6796,10 @@
         <v>82</v>
       </c>
       <c r="D83" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>869</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>870</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>621</v>
@@ -6837,7 +6808,7 @@
         <v>3</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
@@ -6851,10 +6822,10 @@
         <v>83</v>
       </c>
       <c r="D84" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="E84" s="15" t="s">
         <v>869</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>870</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>213</v>
@@ -6875,7 +6846,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>628</v>
@@ -6899,10 +6870,10 @@
         <v>85</v>
       </c>
       <c r="D86" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="E86" s="15" t="s">
         <v>869</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>870</v>
       </c>
       <c r="F86" s="13" t="s">
         <v>100</v>
@@ -6923,10 +6894,10 @@
         <v>86</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F87" s="13">
         <v>3</v>
@@ -6943,42 +6914,42 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="N2:N87">
-    <cfRule type="cellIs" dxfId="13" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="49" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="50" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N5">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N5">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N5">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
